--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UWO\DR Marc O Martel data\Pain-Research-1-Dr-Marc-O-Martel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BEA670-E0B0-444A-88F1-0AE29100377A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5680DFD-DBEB-4D11-8450-1C421FF0B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>Work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +52,18 @@
   </si>
   <si>
     <t>Mar. 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Cleaning Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work (Martel; OA Paper)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mar. 18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,21 +412,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -426,10 +434,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -437,12 +445,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UWO\DR Marc O Martel data\Pain-Research-1-Dr-Marc-O-Martel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5680DFD-DBEB-4D11-8450-1C421FF0B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B8EF5-778D-4AC0-A996-805D0F42D062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>Mar. 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mar. 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Analysis (Modelling)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,6 +473,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UWO\DR Marc O Martel data\Pain-Research-1-Dr-Marc-O-Martel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B8EF5-778D-4AC0-A996-805D0F42D062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373212C-320C-451D-8BE9-4D939EF42F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Data Analysis (Modelling)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work (Martel; Day Variable Problems)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solving the problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mar. 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -482,6 +494,22 @@
       </c>
       <c r="C6">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UWO\DR Marc O Martel data\Pain-Research-1-Dr-Marc-O-Martel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373212C-320C-451D-8BE9-4D939EF42F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FDDCE6-22AA-4DE2-9A67-27674B3B1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UWO\DR Marc O Martel data\Pain-Research-1-Dr-Marc-O-Martel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FDDCE6-22AA-4DE2-9A67-27674B3B1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5230378-485B-664D-9874-AC671617D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,23 +85,32 @@
   <si>
     <t>Mar. 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work (Gabriella; MI Meeting)</t>
+  </si>
+  <si>
+    <t>Meeting with Gabriella</t>
+  </si>
+  <si>
+    <t>Apr. 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -110,9 +119,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -136,12 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -510,6 +528,22 @@
       </c>
       <c r="C14">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5230378-485B-664D-9874-AC671617D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0149082-B213-8642-B3F7-39C67B8A9B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Apr. 2</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Apr. 12</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -514,6 +520,17 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0149082-B213-8642-B3F7-39C67B8A9B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEAC3D-DF4E-D241-BC48-97B1A15E5834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Apr. 12</t>
+  </si>
+  <si>
+    <t>More analysis</t>
+  </si>
+  <si>
+    <t>Apr. 15</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -531,6 +537,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEAC3D-DF4E-D241-BC48-97B1A15E5834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABE8D9-68B3-104C-9C5B-A3DA568ECAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Apr. 15</t>
+  </si>
+  <si>
+    <t>Apr. 16</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -548,6 +551,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABE8D9-68B3-104C-9C5B-A3DA568ECAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF493DE-885E-1749-8B80-D8755BD8BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Apr. 16</t>
+  </si>
+  <si>
+    <t>Alice's Data &amp; Plots</t>
+  </si>
+  <si>
+    <t>Apr. 18</t>
+  </si>
+  <si>
+    <t>Meeting (CV)</t>
+  </si>
+  <si>
+    <t>Apr. 23</t>
   </si>
 </sst>
 </file>
@@ -455,7 +467,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,6 +574,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF493DE-885E-1749-8B80-D8755BD8BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97D34F-6CE0-3C4F-BB63-83961C09588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Apr. 23</t>
+  </si>
+  <si>
+    <t>Recurring meeting</t>
+  </si>
+  <si>
+    <t>May. 7</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -596,35 +602,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1</v>
       </c>
     </row>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97D34F-6CE0-3C4F-BB63-83961C09588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282975CB-55FB-D54D-B380-FD637D063767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>May. 7</t>
+  </si>
+  <si>
+    <t>Statistical Analysis (dailypainave, output reporting)</t>
+  </si>
+  <si>
+    <t>May. 12</t>
+  </si>
+  <si>
+    <t>May. 13</t>
+  </si>
+  <si>
+    <t>Statistical Analysis (percent time of pain, Beta reg)</t>
   </si>
 </sst>
 </file>
@@ -470,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,35 +625,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>1</v>
       </c>
     </row>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282975CB-55FB-D54D-B380-FD637D063767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B6356-565C-024C-8E9C-354CEAB2B5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +150,9 @@
   </si>
   <si>
     <t>Statistical Analysis (percent time of pain, Beta reg)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -482,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,6 +693,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C2:C20)</f>
+        <v>26.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B6356-565C-024C-8E9C-354CEAB2B5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE06EF-7D98-4B4E-A311-8BCC96C78135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>May. 14</t>
+  </si>
+  <si>
+    <t>Amount ($)</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -661,45 +667,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22">
-        <f>SUM(C2:C20)</f>
-        <v>26.5</v>
+      <c r="C23">
+        <f>SUM(C2:C21)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <f>C23*25</f>
+        <v>687.5</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE06EF-7D98-4B4E-A311-8BCC96C78135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926233FD-29B5-4646-8ABA-2E086C989839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,7 +158,16 @@
     <t>May. 14</t>
   </si>
   <si>
-    <t>Amount ($)</t>
+    <t>Statistical Analysis (centering, CI, ICC)</t>
+  </si>
+  <si>
+    <t>May. 20</t>
+  </si>
+  <si>
+    <t>May. 21</t>
+  </si>
+  <si>
+    <t>Amount (25$/hour)</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,54 +687,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C23">
-        <f>SUM(C2:C21)</f>
-        <v>27.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <f>C23*25</f>
-        <v>687.5</v>
+        <f>SUM(C2:C23)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <f>C25*25</f>
+        <v>912.5</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926233FD-29B5-4646-8ABA-2E086C989839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B934F9-C50A-FA42-83E0-A5AA7BB07C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Amount (25$/hour)</t>
+  </si>
+  <si>
+    <t>May. 19</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,7 +695,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -703,60 +706,71 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C25">
-        <f>SUM(C2:C23)</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C26">
+        <f>SUM(C2:C24)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27">
-        <f>C25*25</f>
-        <v>912.5</v>
+      <c r="C28">
+        <f>C26*25</f>
+        <v>937.5</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijiaqi/Desktop/Project; Daily diaries; 30-days/Pain-Research-1-Dr-Marc-O-Martel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B934F9-C50A-FA42-83E0-A5AA7BB07C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E99F8F-9393-3D40-920C-8F07E344F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>May. 19</t>
+  </si>
+  <si>
+    <t>Plots &amp; Sample Size</t>
+  </si>
+  <si>
+    <t>May. 26</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -723,54 +729,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26">
-        <f>SUM(C2:C24)</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C27">
+        <f>SUM(C2:C25)</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C28">
-        <f>C26*25</f>
-        <v>937.5</v>
+      <c r="C29">
+        <f>C27*25</f>
+        <v>987.5</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E99F8F-9393-3D40-920C-8F07E344F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F47F9-ADA3-E547-9827-7D672EA06FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="2740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11300" yWindow="2920" windowWidth="22900" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,9 +152,6 @@
     <t>Statistical Analysis (percent time of pain, Beta reg)</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>May. 14</t>
   </si>
   <si>
@@ -177,13 +174,118 @@
   </si>
   <si>
     <t>May. 26</t>
+  </si>
+  <si>
+    <t>June. 11</t>
+  </si>
+  <si>
+    <t>Data visualizations</t>
+  </si>
+  <si>
+    <t>June. 17</t>
+  </si>
+  <si>
+    <t>Invoiced #2</t>
+  </si>
+  <si>
+    <t>Invoice #3 (Not invoiced yet)</t>
+  </si>
+  <si>
+    <t>Work (Martel; CDO Problems)</t>
+  </si>
+  <si>
+    <t>June. 19</t>
+  </si>
+  <si>
+    <t>June. 21</t>
+  </si>
+  <si>
+    <t>Work (Jamison Data)</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>June. 25</t>
+  </si>
+  <si>
+    <t>Data Analysis and visualization</t>
+  </si>
+  <si>
+    <t>June. 30</t>
+  </si>
+  <si>
+    <t>July 8 &amp; 9</t>
+  </si>
+  <si>
+    <t>July. 16</t>
+  </si>
+  <si>
+    <t>Some of codings</t>
+  </si>
+  <si>
+    <t>July 22-July. 24</t>
+  </si>
+  <si>
+    <t>July. 25</t>
+  </si>
+  <si>
+    <t>MSSD R Code</t>
+  </si>
+  <si>
+    <t>July. 29</t>
+  </si>
+  <si>
+    <t>July. 31</t>
+  </si>
+  <si>
+    <t>BMI Categorizing, analyses and plots</t>
+  </si>
+  <si>
+    <t>July. 30</t>
+  </si>
+  <si>
+    <t>Computing ICC for all Models</t>
+  </si>
+  <si>
+    <t>Aug. 2</t>
+  </si>
+  <si>
+    <t>TOTAL HOURS</t>
+  </si>
+  <si>
+    <t>Aug. 13</t>
+  </si>
+  <si>
+    <t>Work (Alice's Data)</t>
+  </si>
+  <si>
+    <t>EMA; Data check, Wave_Moment problems</t>
+  </si>
+  <si>
+    <t>Aug. 16</t>
+  </si>
+  <si>
+    <t>Aug. 20</t>
+  </si>
+  <si>
+    <t>Sep. 6</t>
+  </si>
+  <si>
+    <t>Sep. 10</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Sep. 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +317,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,10 +356,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,18 +644,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -541,253 +667,678 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D6" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16">
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="E36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <f>SUM(C2:C58)</f>
+        <v>67.5</v>
+      </c>
+      <c r="D62" s="3">
+        <f>SUM(D2:D58)</f>
+        <v>40.5</v>
+      </c>
+      <c r="E62">
+        <f>SUM(E20:E61)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <f>SUM(C2:C25)</f>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <f>C27*25</f>
+      <c r="C64">
+        <f>C62*25</f>
+        <v>1687.5</v>
+      </c>
+      <c r="D64" s="3">
         <v>987.5</v>
+      </c>
+      <c r="E64">
+        <f>C64-D64</f>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F47F9-ADA3-E547-9827-7D672EA06FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F43882F-383E-9D42-89CE-9C00F6E17B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="2920" windowWidth="22900" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="3140" windowWidth="22900" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,9 +188,6 @@
     <t>Invoiced #2</t>
   </si>
   <si>
-    <t>Invoice #3 (Not invoiced yet)</t>
-  </si>
-  <si>
     <t>Work (Martel; CDO Problems)</t>
   </si>
   <si>
@@ -279,13 +276,55 @@
   </si>
   <si>
     <t>Sep. 12</t>
+  </si>
+  <si>
+    <t>Sep. 15</t>
+  </si>
+  <si>
+    <t>Sep. 17</t>
+  </si>
+  <si>
+    <t>Sep. 21</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Sep. 26</t>
+  </si>
+  <si>
+    <t>Oct. 1</t>
+  </si>
+  <si>
+    <t>Graphs (Obj 2)</t>
+  </si>
+  <si>
+    <t>Oct. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice #3 </t>
+  </si>
+  <si>
+    <t>Invoice #4 (Not invoiced yet)</t>
+  </si>
+  <si>
+    <t>Oct. 8</t>
+  </si>
+  <si>
+    <t>Graphs (Moderation Analysis Plot)</t>
+  </si>
+  <si>
+    <t>Oct. 14 &amp; 15</t>
+  </si>
+  <si>
+    <t>Flagging &amp; Data wrangling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,15 +364,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,14 +405,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,20 +698,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -671,10 +727,13 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -688,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -702,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -716,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -730,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -744,7 +803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -758,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -772,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -786,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -800,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -814,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -828,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -842,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -856,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -870,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -927,418 +986,582 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="11">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36">
-        <v>1.5</v>
-      </c>
-      <c r="E36">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="3">
-        <v>3</v>
-      </c>
-      <c r="D55" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62">
-        <f>SUM(C2:C58)</f>
-        <v>67.5</v>
-      </c>
-      <c r="D62" s="3">
-        <f>SUM(D2:D58)</f>
-        <v>40.5</v>
-      </c>
-      <c r="E62">
-        <f>SUM(E20:E61)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <f>SUM(C2:C67)</f>
+        <v>85.5</v>
+      </c>
+      <c r="D71" s="3">
+        <f>SUM(D2:D67)</f>
+        <v>39.5</v>
+      </c>
+      <c r="E71" s="3">
+        <f>SUM(E20:E70)</f>
+        <v>36</v>
+      </c>
+      <c r="F71">
+        <f>SUM(F2:F70)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C64">
-        <f>C62*25</f>
-        <v>1687.5</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C73">
+        <f>C71*25</f>
+        <v>2137.5</v>
+      </c>
+      <c r="D73" s="3">
         <v>987.5</v>
       </c>
-      <c r="E64">
-        <f>C64-D64</f>
-        <v>700</v>
+      <c r="E73" s="3">
+        <f>E71*25</f>
+        <v>900</v>
+      </c>
+      <c r="F73">
+        <f>F71*25</f>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/McGill RA Working Hours.xlsx
+++ b/McGill RA Working Hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garybi/Desktop/MSc Biostatistics Western/Dr. Marc O. Martel Lab RA/Pain-Research-1-Dr-Marc-O-Martel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F43882F-383E-9D42-89CE-9C00F6E17B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C812DAF-6905-104E-9194-E8ABF1CDFED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="3140" windowWidth="22900" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="3120" windowWidth="22900" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,78 @@
   </si>
   <si>
     <t>Flagging &amp; Data wrangling</t>
+  </si>
+  <si>
+    <t>Oct. 29</t>
+  </si>
+  <si>
+    <t>Graphing</t>
+  </si>
+  <si>
+    <t>Nov. 7, 2024</t>
+  </si>
+  <si>
+    <t>Quality Check</t>
+  </si>
+  <si>
+    <t>Nov. 13, 2024</t>
+  </si>
+  <si>
+    <t>Nov. 26</t>
+  </si>
+  <si>
+    <t>Graphings</t>
+  </si>
+  <si>
+    <t>Nov. 22, 2024</t>
+  </si>
+  <si>
+    <t>Analyses and Graphs</t>
+  </si>
+  <si>
+    <t>Dec. 1</t>
+  </si>
+  <si>
+    <t>Dec. 2</t>
+  </si>
+  <si>
+    <t>Table Formulations</t>
+  </si>
+  <si>
+    <t>Nov. 15, 2024</t>
+  </si>
+  <si>
+    <t>Dec. 3</t>
+  </si>
+  <si>
+    <t>Data Merging</t>
+  </si>
+  <si>
+    <t>Jan. 7</t>
+  </si>
+  <si>
+    <t>Writings</t>
+  </si>
+  <si>
+    <t>Jan. 8</t>
+  </si>
+  <si>
+    <t>Jan. 14</t>
+  </si>
+  <si>
+    <t>graphing</t>
+  </si>
+  <si>
+    <t>Jan. 20</t>
+  </si>
+  <si>
+    <t>Jan. 25, 2025</t>
+  </si>
+  <si>
+    <t>Jan. 28, 2025</t>
+  </si>
+  <si>
+    <t>Feb. 1, 2025</t>
   </si>
 </sst>
 </file>
@@ -405,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,7 +489,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -943,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -957,7 +1028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -971,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -985,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1000,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1015,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1030,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1045,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1075,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1090,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -1105,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1120,7 +1191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -1135,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1150,36 +1221,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -1191,161 +1263,196 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-    </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
+      <c r="A40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -1356,212 +1463,416 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>12</v>
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3">
-        <v>3</v>
-      </c>
-      <c r="D63" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
       <c r="D64" s="3"/>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>15</v>
+      <c r="A66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3</v>
       </c>
       <c r="D66" s="3"/>
+      <c r="E66" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C71">
-        <f>SUM(C2:C67)</f>
-        <v>85.5</v>
-      </c>
-      <c r="D71" s="3">
-        <f>SUM(D2:D67)</f>
+      <c r="C87">
+        <f>SUM(C2:C83)</f>
+        <v>115.5</v>
+      </c>
+      <c r="D87" s="3">
+        <f>SUM(D2:D83)</f>
         <v>39.5</v>
       </c>
-      <c r="E71" s="3">
-        <f>SUM(E20:E70)</f>
+      <c r="E87" s="3">
+        <f>SUM(E20:E86)</f>
         <v>36</v>
       </c>
-      <c r="F71">
-        <f>SUM(F2:F70)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="F87">
+        <f>SUM(F2:F86)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C73">
-        <f>C71*25</f>
-        <v>2137.5</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="C89">
+        <f>C87*25</f>
+        <v>2887.5</v>
+      </c>
+      <c r="D89" s="3">
         <v>987.5</v>
       </c>
-      <c r="E73" s="3">
-        <f>E71*25</f>
+      <c r="E89" s="3">
+        <f>E87*25</f>
         <v>900</v>
       </c>
-      <c r="F73">
-        <f>F71*25</f>
-        <v>250</v>
+      <c r="F89">
+        <f>F87*25</f>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
